--- a/r5-core-main/1.1.0/StructureDefinition-at-core-address.xlsx
+++ b/r5-core-main/1.1.0/StructureDefinition-at-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T15:47:01+00:00</t>
+    <t>2024-04-26T15:52:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
